--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -451,1443 +451,1951 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8333</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6598</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>006160</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>博道启航混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>006161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>博道启航混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>270050</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发新经济混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008328</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>010246</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>410007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华富价值增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001171</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信养老产业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>41.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010110</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010111</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010685</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009364</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009365</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006002</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银瑞信医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006003</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>270005</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发聚丰混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001320</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银瑞信丰盈回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>78.31</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002124</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001717</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005303</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>005304</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>010433</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>501078</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1897,7 +2405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,15 +2426,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1938,25 +2456,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003284</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮医药健康灵活配置混合</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.35</t>
+          <t>58.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>010595</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>广发成长精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>112.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>001717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>工银瑞信前沿医疗股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>73.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>004851</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>广发医疗保健股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>116.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2050,26 +2608,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161035</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证医药主题指数增强型（LOF）</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5884</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>000831</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>工银瑞信医疗保健行业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>38.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3765</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2106,25 +2684,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>010393</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>工银瑞信健康生活混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>30.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>001171</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>工银瑞信养老产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8490</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2162,25 +2760,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>006002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>工银瑞信医药健康股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>23.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0765</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0519</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>000945</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>华夏医疗健康混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005738</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城智能产业灵活配置混合</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7397</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501098</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>410007</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华富价值增长混合</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5974</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001171</t>
+          <t>008328</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信养老产业股票</t>
+          <t>诺安新兴产业混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2414,25 +3102,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5370</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>010585</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>创金合信医药消费股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>浦银安盛增长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>80.95</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006002</t>
+          <t>009163</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>工银瑞信医药健康股票A</t>
+          <t>广发医疗保健股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006003</t>
+          <t>005738</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信医药健康股票C</t>
+          <t>长城智能产业灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000339</t>
+          <t>009364</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长城医疗保健混合</t>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006193</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票A</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006194</t>
+          <t>006003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票C</t>
+          <t>工银瑞信医药健康股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2722,26 +3520,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>004040</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>金鹰医疗健康产业股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>010596</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>广发成长精选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长城久鑫灵活配置混合</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>000339</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>长城医疗保健混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2862,25 +3710,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>010394</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>工银瑞信健康生活混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,25 +3748,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>410007</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>华富价值增长混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000831</t>
+          <t>004041</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工银瑞信医疗保健行业股票</t>
+          <t>金鹰医疗健康产业股票C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>000945</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华夏医疗健康混合A</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3012,15 +3910,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>92.61</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>010393</t>
+          <t>161035</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>工银瑞信健康生活混合A</t>
+          <t>富国中证医药主题指数增强型（LOF）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>010394</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>工银瑞信健康生活混合C</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -3086,25 +4014,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>010685</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>工银瑞信前沿医疗股票C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3142,25 +4090,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010585</t>
+          <t>001990</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票A</t>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3170,26 +4128,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010586</t>
+          <t>010709</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票C</t>
+          <t>安信医药健康主题股票A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -3198,26 +4166,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010595</t>
+          <t>501098</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>广发成长精选混合A</t>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -3226,26 +4204,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010596</t>
+          <t>003152</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>广发成长精选混合C</t>
+          <t>华富天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3254,26 +4242,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -3282,26 +4280,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -3320,15 +4328,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>89.64</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3338,26 +4356,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>7</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3366,26 +4394,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>010710</t>
+          <t>002224</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票C</t>
+          <t>中邮绝对收益策略定期开放混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>7</v>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -3394,26 +4432,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>001281</t>
+          <t>519113</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>长安鑫利优选灵活配置混合A</t>
+          <t>浦银安盛精致生活混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -3422,26 +4470,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002072</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长安鑫利优选灵活配置混合C</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>2</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3450,26 +4508,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001298</t>
+          <t>010586</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金鹰民族新兴灵活配置混合</t>
+          <t>创金合信医药消费股票C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>10</v>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3478,26 +4546,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001657</t>
+          <t>009365</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>长安鑫富领先灵活配置混合</t>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>82.03</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>6</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -3506,26 +4584,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>9</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3534,26 +4622,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>6</v>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3562,25 +4660,35 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>003284</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>中邮医药健康灵活配置混合</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,26 +4698,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>5</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3618,26 +4736,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>001717</t>
+          <t>001298</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票A</t>
+          <t>金鹰民族新兴灵活配置混合</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>2</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3646,25 +4774,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>010685</t>
+          <t>004234</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票C</t>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3674,26 +4812,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>519170</t>
+          <t>571002</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
+          <t>诺德主题灵活配置混合</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -3702,26 +4850,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>001734</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>8</v>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -3730,25 +4888,35 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>001734</t>
+          <t>001735</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>86.65</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>4.71</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3758,26 +4926,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>001735</t>
+          <t>002919</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>6</v>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -3786,26 +4964,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>001990</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>2</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3814,26 +5002,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>004234</t>
+          <t>000649</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
+          <t>长城久鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3842,26 +5040,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>571002</t>
+          <t>001281</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>诺德主题灵活配置混合</t>
+          <t>长安鑫利优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>5</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3870,26 +5078,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>002124</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>3</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3898,26 +5116,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>002224</t>
+          <t>010710</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中邮绝对收益策略定期开放混合</t>
+          <t>安信医药健康主题股票C</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>43.93</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>10</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3926,26 +5154,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>740001</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>长安宏观策略混合</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>84.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>5</v>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3954,26 +5192,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3982,26 +5230,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>005382</t>
+          <t>006193</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合C</t>
+          <t>鑫元核心资产股票A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>6</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -4010,26 +5268,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>002919</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>5</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4038,26 +5306,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>003153</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>华富天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10.91</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -4066,25 +5344,35 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>003152</t>
+          <t>002072</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合A</t>
+          <t>长安鑫利优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4094,26 +5382,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>003153</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合C</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>2</v>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -4122,25 +5420,35 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>001657</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>长安鑫富领先灵活配置混合</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4150,26 +5458,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>003646</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>创金合信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>6</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4178,26 +5496,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>003646</t>
+          <t>740001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强A</t>
+          <t>长安宏观策略混合</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>9</v>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4206,25 +5534,35 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>003647</t>
+          <t>010055</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强C</t>
+          <t>万家健康产业混合C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4234,26 +5572,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>004040</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票A</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4262,26 +5610,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>004041</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>金鹰医疗健康产业股票C</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>2</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -4290,26 +5648,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>008328</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>诺安新兴产业混合</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>2</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4318,26 +5686,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>004851</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>广发医疗保健股票A</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>10</v>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -4346,26 +5724,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>009163</t>
+          <t>003647</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>广发医疗保健股票C</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>10</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4374,26 +5762,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>005382</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>泰康睿利量化多策略混合C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>3</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4402,26 +5800,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4430,26 +5838,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>006194</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>鑫元核心资产股票C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>77.19</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4458,25 +5876,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>11.33</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5884,7 +5885,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -5900,6 +5900,4656 @@
       </c>
       <c r="H92" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>504.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.4211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>242.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.7617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.4157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.7303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>140.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.4584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3642</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5240</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8237</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5519</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5173</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1955</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9699</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9591</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7949</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7580</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6821</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6596</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6160</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5842</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5678</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5426</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5335</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5086</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10555,4 +10556,6704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>634.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.3760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>321.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.8688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.4368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>141.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.0526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.8081</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>116.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.7268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.4807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>108.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.0398</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3490</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8586</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3633</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2740</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1909</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1828</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1432</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1429</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4755</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4720</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3936</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3514</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3146</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0878</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0684</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0282</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0282</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0144</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9261</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8402</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7244</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6996</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6719</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6331</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4714</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3810</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3626</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3491</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>40.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>大成消费精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17256,4 +17257,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>158.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>109.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17265,7 +17266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17276,17 +17277,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17296,14 +17317,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>175</v>
-      </c>
-      <c r="D2" t="n">
-        <v>158.56</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>434.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -17312,14 +17355,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>109.62</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -17328,14 +17393,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.96</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.3350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17344,13 +17431,5955 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>130.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.5601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.1874</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7908</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3594</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6818</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3514</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2562</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2380</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2219</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1470</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8777</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3718</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2995</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2843</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2755</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1882</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1135</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1125</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0863</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9986</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9895</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9861</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7354</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6744</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6547</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6311</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5816</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5712</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5529</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4745</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>44.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>157</v>
+      </c>
+      <c r="D2" t="n">
+        <v>122.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>175</v>
+      </c>
+      <c r="D3" t="n">
+        <v>158.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23278,7 +23279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23289,17 +23290,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23309,14 +23330,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>157</v>
-      </c>
-      <c r="D2" t="n">
-        <v>122.24</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -23325,14 +23368,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>175</v>
-      </c>
-      <c r="D3" t="n">
-        <v>158.56</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>118.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.6851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -23341,14 +23406,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>109.62</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>113.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -23357,14 +23444,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>91</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.96</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.4778</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -23373,13 +23482,9701 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8415</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6304</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8365</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7985</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7664</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6233</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4833</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4672</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.4665</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3857</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2821</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2718</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2622</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1994</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1830</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1297</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1129</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9707</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9329</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8754</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8402</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8353</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7745</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7627</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6677</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6649</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6408</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5935</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5708</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5599</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5548</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4830</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>256</v>
+      </c>
+      <c r="D2" t="n">
+        <v>140.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>157</v>
+      </c>
+      <c r="D3" t="n">
+        <v>122.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>158.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33059,7 +33060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33070,17 +33071,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33090,14 +33111,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>256</v>
-      </c>
-      <c r="D2" t="n">
-        <v>140.82</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -33106,14 +33149,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>157</v>
-      </c>
-      <c r="D3" t="n">
-        <v>122.24</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -33122,14 +33187,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>158.56</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -33138,14 +33225,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>121</v>
-      </c>
-      <c r="D5" t="n">
-        <v>109.62</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -33154,14 +33263,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>91</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.96</v>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -33170,13 +33301,5801 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4746</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4505</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3358</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1804</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0997</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0229</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9084</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8924</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8496</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>44.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8484</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7436</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>256</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>122.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>158.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>91</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>64.45</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
-        <v>140.82</v>
+        <v>64.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
-        <v>122.24</v>
+        <v>140.82</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D5" t="n">
-        <v>158.56</v>
+        <v>122.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="D6" t="n">
-        <v>109.62</v>
+        <v>158.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D7" t="n">
-        <v>46.96</v>
+        <v>109.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29.97</v>
       </c>
     </row>
@@ -600,6 +617,1998 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>57.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6501,7 +8510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16281,7 +18290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22293,7 +24302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28993,7 +31002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33643,7 +35652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37150,7 +39159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300363-博腾股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>15.32</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>64.45</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
-        <v>140.82</v>
+        <v>64.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="D5" t="n">
-        <v>122.24</v>
+        <v>140.82</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D6" t="n">
-        <v>158.56</v>
+        <v>122.24</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="D7" t="n">
-        <v>109.62</v>
+        <v>158.56</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D8" t="n">
-        <v>46.96</v>
+        <v>109.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1984 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>29.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8598</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8333</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6598</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4472</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2588,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商价值共享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8510,7 +11829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18290,7 +21609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24302,7 +27621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31002,7 +34321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35652,7 +38971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39157,1958 +42476,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发聚丰混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5774</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001717</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>68.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.9244</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>270050</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发新经济混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.8128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001171</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信养老产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6978</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.4347</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3443</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1197</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0018</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007750</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发优势增长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.8764</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501078</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.8598</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.8333</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8011</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005303</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7979</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161040</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>33.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>63.23</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6907</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6598</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6213</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008328</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5533</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002124</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5294</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010433</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发新兴产业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5294</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.5169</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010110</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>53.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4472</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>162720</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>41.21</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2801</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009364</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2375</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006003</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>410007</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华富价值增长混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1422</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1389</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1239</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1205</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005304</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010111</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>广发医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0773</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010685</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银瑞信前沿医疗股票C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006160</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>博道启航混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0616</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010134</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>广发新经济混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001320</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>工银瑞信丰盈回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>78.31</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009365</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>90.64</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>广发聚丰混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>006161</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>博道启航混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>